--- a/Daily Backup hourlys/30 min csh/EICHER.xlsx
+++ b/Daily Backup hourlys/30 min csh/EICHER.xlsx
@@ -586,19 +586,19 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="2" t="n">
-        <v>3838.3</v>
+        <v>3855</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3846.35</v>
+        <v>4007.9</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>3805</v>
+        <v>3847.55</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3833.8</v>
+        <v>3957.95</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>3844.2</v>
+        <v>3912.4</v>
       </c>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
@@ -649,13 +649,13 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3854.4</v>
+        <v>3908.4</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3830.05</v>
+        <v>3847.55</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>3838.95</v>
+        <v>3864.3</v>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
@@ -674,13 +674,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3846.35</v>
+        <v>3945.25</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3829.9</v>
+        <v>3862.4</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>3830.8</v>
+        <v>3922</v>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
@@ -699,13 +699,13 @@
         <v>0.4375</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3832.05</v>
+        <v>3973.4</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3806.1</v>
+        <v>3919.95</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3808.6</v>
+        <v>3942.75</v>
       </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
@@ -724,13 +724,13 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3818</v>
+        <v>3967.9</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3805</v>
+        <v>3925</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>3813.9</v>
+        <v>3951.95</v>
       </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
@@ -749,13 +749,13 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3837.3</v>
+        <v>3951.95</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>3811.1</v>
+        <v>3932.1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>3833.05</v>
+        <v>3944.35</v>
       </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
@@ -774,13 +774,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3836</v>
+        <v>3961.15</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>3821</v>
+        <v>3942.6</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>3831.7</v>
+        <v>3957.65</v>
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
@@ -799,13 +799,13 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3843.9</v>
+        <v>3967.1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>3825.1</v>
+        <v>3945</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>3830</v>
+        <v>3952.8</v>
       </c>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
@@ -824,13 +824,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3841.9</v>
+        <v>3965.95</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>3828</v>
+        <v>3946.15</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>3832.4</v>
+        <v>3964.9</v>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.5625</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3833.85</v>
+        <v>3970</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>3828.7</v>
+        <v>3955.6</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>3830.75</v>
+        <v>3969</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
@@ -874,13 +874,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3831.9</v>
+        <v>4007.9</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>3827.5</v>
+        <v>3968</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>3829.9</v>
+        <v>3997</v>
       </c>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
@@ -899,13 +899,13 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3834.5</v>
+        <v>3997.05</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>3828</v>
+        <v>3975.05</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>3834.5</v>
+        <v>3988</v>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
@@ -924,13 +924,13 @@
         <v>0.625</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3841.5</v>
+        <v>3990</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>3825.8</v>
+        <v>3958.8</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>3828</v>
+        <v>3962.4</v>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
@@ -949,13 +949,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3839.7</v>
+        <v>3978.4</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>3828</v>
+        <v>3949.45</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>3834</v>
+        <v>3963.85</v>
       </c>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
